--- a/municipal/ENG/Hotels/Guests/Samtskhe-Javakheti/Borjomi Municipality.xlsx
+++ b/municipal/ENG/Hotels/Guests/Samtskhe-Javakheti/Borjomi Municipality.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4.4 Guests\Samtskhe-Javakheti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სასტუმროები ქარ. EN\4.4 Guests\Samtskhe-Javakheti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>From Georgia</t>
-  </si>
-  <si>
-    <t>(Men)</t>
   </si>
   <si>
     <t>Business trip</t>
@@ -118,6 +115,9 @@
       <t xml:space="preserve"> by country and purpose of arrival in Borjomi  Municipality</t>
     </r>
   </si>
+  <si>
+    <t>(person)</t>
+  </si>
 </sst>
 </file>
 
@@ -126,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +207,12 @@
       <b/>
       <sz val="9"/>
       <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -333,13 +339,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -363,14 +372,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -669,14 +675,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="12" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="A1" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
@@ -685,14 +691,14 @@
       <c r="U1" s="13"/>
     </row>
     <row r="2" spans="1:61" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+      <c r="A2" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -750,18 +756,18 @@
       <c r="BI2" s="14"/>
     </row>
     <row r="3" spans="1:61" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -819,19 +825,19 @@
       <c r="BI3" s="14"/>
     </row>
     <row r="4" spans="1:61" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="30" t="s">
+      <c r="F4" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>7</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -890,14 +896,14 @@
       <c r="BI4" s="3"/>
     </row>
     <row r="5" spans="1:61" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33">
+      <c r="A5" s="43">
         <v>2010</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -956,7 +962,7 @@
     </row>
     <row r="6" spans="1:61" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="9">
         <v>24932</v>
@@ -1031,7 +1037,7 @@
     </row>
     <row r="7" spans="1:61" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1166,7 +1172,7 @@
     </row>
     <row r="9" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="10">
         <v>2087</v>
@@ -1181,7 +1187,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -1241,7 +1247,7 @@
     </row>
     <row r="10" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -1301,7 +1307,7 @@
     </row>
     <row r="11" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="10">
         <v>503</v>
@@ -1313,10 +1319,10 @@
         <v>81</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -1376,7 +1382,7 @@
     </row>
     <row r="12" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="10">
         <v>1099</v>
@@ -1391,7 +1397,7 @@
         <v>50</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -1451,22 +1457,22 @@
     </row>
     <row r="13" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="44">
+        <v>9</v>
+      </c>
+      <c r="B13" s="33">
         <v>485</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="33">
         <v>464</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="33">
         <v>21</v>
       </c>
-      <c r="E13" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>15</v>
+      <c r="E13" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>14</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
@@ -1591,22 +1597,22 @@
     </row>
     <row r="15" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="43">
+        <v>7</v>
+      </c>
+      <c r="B15" s="32">
         <v>33891</v>
       </c>
-      <c r="C15" s="43">
+      <c r="C15" s="32">
         <v>30279</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="32">
         <v>2982</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="32">
         <v>630</v>
       </c>
-      <c r="F15" s="43" t="s">
-        <v>15</v>
+      <c r="F15" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
@@ -1666,7 +1672,7 @@
     </row>
     <row r="16" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1746,12 +1752,12 @@
         <v>630</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="10">
         <v>7998</v>
@@ -1763,15 +1769,15 @@
         <v>237</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1781,7 +1787,7 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="10">
         <v>2245</v>
@@ -1793,15 +1799,15 @@
         <v>218</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="10">
         <v>1495</v>
@@ -1810,68 +1816,68 @@
         <v>1495</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="44">
+        <v>9</v>
+      </c>
+      <c r="B22" s="33">
         <v>4258</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="33">
         <v>4239</v>
       </c>
-      <c r="D22" s="44">
+      <c r="D22" s="33">
         <v>19</v>
       </c>
-      <c r="E22" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="44" t="s">
-        <v>15</v>
+      <c r="E22" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34">
         <v>2012</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="43">
+        <v>7</v>
+      </c>
+      <c r="B24" s="32">
         <v>38204</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C24" s="32">
         <v>35152</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="32">
         <v>2573</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="32">
         <v>479</v>
       </c>
-      <c r="F24" s="43" t="s">
-        <v>15</v>
+      <c r="F24" s="32" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1896,12 +1902,12 @@
         <v>330</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="10">
         <v>8467</v>
@@ -1916,12 +1922,12 @@
         <v>149</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -1931,7 +1937,7 @@
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="10">
         <v>826</v>
@@ -1946,12 +1952,12 @@
         <v>7</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="10">
         <v>2735</v>
@@ -1966,62 +1972,62 @@
         <v>136</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="44">
+        <v>9</v>
+      </c>
+      <c r="B31" s="33">
         <v>4906</v>
       </c>
-      <c r="C31" s="44">
+      <c r="C31" s="33">
         <v>4862</v>
       </c>
-      <c r="D31" s="44">
+      <c r="D31" s="33">
         <v>38</v>
       </c>
-      <c r="E31" s="44">
+      <c r="E31" s="33">
         <v>6</v>
       </c>
-      <c r="F31" s="44" t="s">
-        <v>15</v>
+      <c r="F31" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>2013</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="43">
+        <v>7</v>
+      </c>
+      <c r="B33" s="32">
         <v>33678</v>
       </c>
-      <c r="C33" s="43">
+      <c r="C33" s="32">
         <v>24849</v>
       </c>
-      <c r="D33" s="43">
+      <c r="D33" s="32">
         <v>2759</v>
       </c>
-      <c r="E33" s="43">
+      <c r="E33" s="32">
         <v>1070</v>
       </c>
-      <c r="F33" s="43">
+      <c r="F33" s="32">
         <v>5000</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2046,12 +2052,12 @@
         <v>90</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" s="10">
         <v>17042</v>
@@ -2071,7 +2077,7 @@
     </row>
     <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -2081,7 +2087,7 @@
     </row>
     <row r="38" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="10">
         <v>828</v>
@@ -2090,18 +2096,18 @@
         <v>745</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38" s="10">
         <v>83</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" s="10">
         <v>5122</v>
@@ -2110,32 +2116,32 @@
         <v>4310</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" s="10">
         <v>812</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="44">
+        <v>9</v>
+      </c>
+      <c r="B40" s="33">
         <v>11092</v>
       </c>
-      <c r="C40" s="44">
+      <c r="C40" s="33">
         <v>5977</v>
       </c>
-      <c r="D40" s="44">
+      <c r="D40" s="33">
         <v>30</v>
       </c>
-      <c r="E40" s="44">
+      <c r="E40" s="33">
         <v>85</v>
       </c>
-      <c r="F40" s="44">
+      <c r="F40" s="33">
         <v>5000</v>
       </c>
     </row>
@@ -2143,35 +2149,35 @@
       <c r="A41" s="34">
         <v>2014</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="43">
+        <v>7</v>
+      </c>
+      <c r="B42" s="32">
         <v>55562</v>
       </c>
-      <c r="C42" s="43">
+      <c r="C42" s="32">
         <v>50080</v>
       </c>
-      <c r="D42" s="43">
+      <c r="D42" s="32">
         <v>3537</v>
       </c>
-      <c r="E42" s="43">
+      <c r="E42" s="32">
         <v>1939</v>
       </c>
-      <c r="F42" s="43">
+      <c r="F42" s="32">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -2196,12 +2202,12 @@
         <v>315</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="10">
         <v>25415</v>
@@ -2221,7 +2227,7 @@
     </row>
     <row r="46" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -2231,7 +2237,7 @@
     </row>
     <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47" s="10">
         <v>1210</v>
@@ -2240,10 +2246,10 @@
         <v>1204</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F47" s="10">
         <v>6</v>
@@ -2251,7 +2257,7 @@
     </row>
     <row r="48" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="10">
         <v>8834</v>
@@ -2266,62 +2272,62 @@
         <v>1566</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="44">
+        <v>9</v>
+      </c>
+      <c r="B49" s="33">
         <v>15371</v>
       </c>
-      <c r="C49" s="44">
+      <c r="C49" s="33">
         <v>15277</v>
       </c>
-      <c r="D49" s="44">
+      <c r="D49" s="33">
         <v>36</v>
       </c>
-      <c r="E49" s="44">
+      <c r="E49" s="33">
         <v>58</v>
       </c>
-      <c r="F49" s="44" t="s">
-        <v>15</v>
+      <c r="F49" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="34">
         <v>2015</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" s="43">
+        <v>7</v>
+      </c>
+      <c r="B51" s="32">
         <v>85090</v>
       </c>
-      <c r="C51" s="43">
+      <c r="C51" s="32">
         <v>74706</v>
       </c>
-      <c r="D51" s="43">
+      <c r="D51" s="32">
         <v>3987</v>
       </c>
-      <c r="E51" s="43">
+      <c r="E51" s="32">
         <v>5738</v>
       </c>
-      <c r="F51" s="43">
+      <c r="F51" s="32">
         <v>659</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -2351,7 +2357,7 @@
     </row>
     <row r="54" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" s="10">
         <v>34400</v>
@@ -2371,7 +2377,7 @@
     </row>
     <row r="55" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -2381,7 +2387,7 @@
     </row>
     <row r="56" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" s="10">
         <v>1953</v>
@@ -2390,7 +2396,7 @@
         <v>1607</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E56" s="10">
         <v>334</v>
@@ -2401,7 +2407,7 @@
     </row>
     <row r="57" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" s="10">
         <v>17985</v>
@@ -2421,21 +2427,21 @@
     </row>
     <row r="58" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="44">
+        <v>9</v>
+      </c>
+      <c r="B58" s="33">
         <v>14462</v>
       </c>
-      <c r="C58" s="44">
+      <c r="C58" s="33">
         <v>13534</v>
       </c>
-      <c r="D58" s="44">
+      <c r="D58" s="33">
         <v>239</v>
       </c>
-      <c r="E58" s="44">
+      <c r="E58" s="33">
         <v>678</v>
       </c>
-      <c r="F58" s="44">
+      <c r="F58" s="33">
         <v>11</v>
       </c>
     </row>
@@ -2443,35 +2449,35 @@
       <c r="A59" s="34">
         <v>2016</v>
       </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="43">
+        <v>7</v>
+      </c>
+      <c r="B60" s="32">
         <v>144023</v>
       </c>
-      <c r="C60" s="43">
+      <c r="C60" s="32">
         <v>112107</v>
       </c>
-      <c r="D60" s="43">
+      <c r="D60" s="32">
         <v>14887</v>
       </c>
-      <c r="E60" s="43">
+      <c r="E60" s="32">
         <v>13210</v>
       </c>
-      <c r="F60" s="43">
+      <c r="F60" s="32">
         <v>3819</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -2501,7 +2507,7 @@
     </row>
     <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63" s="10">
         <v>53953</v>
@@ -2516,12 +2522,12 @@
         <v>11369</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -2531,7 +2537,7 @@
     </row>
     <row r="65" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" s="10">
         <v>3401</v>
@@ -2546,12 +2552,12 @@
         <v>74</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" s="10">
         <v>22557</v>
@@ -2566,62 +2572,62 @@
         <v>10835</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="44">
+        <v>9</v>
+      </c>
+      <c r="B67" s="33">
         <v>27995</v>
       </c>
-      <c r="C67" s="44">
+      <c r="C67" s="33">
         <v>26935</v>
       </c>
-      <c r="D67" s="44">
+      <c r="D67" s="33">
         <v>600</v>
       </c>
-      <c r="E67" s="44">
+      <c r="E67" s="33">
         <v>460</v>
       </c>
-      <c r="F67" s="44" t="s">
-        <v>15</v>
+      <c r="F67" s="33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="34">
         <v>2017</v>
       </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
     </row>
     <row r="69" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="43">
+        <v>7</v>
+      </c>
+      <c r="B69" s="32">
         <v>184101</v>
       </c>
-      <c r="C69" s="43">
+      <c r="C69" s="32">
         <v>125099</v>
       </c>
-      <c r="D69" s="43">
+      <c r="D69" s="32">
         <v>22215</v>
       </c>
-      <c r="E69" s="43">
+      <c r="E69" s="32">
         <v>34301</v>
       </c>
-      <c r="F69" s="43">
+      <c r="F69" s="32">
         <v>2486</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -2651,7 +2657,7 @@
     </row>
     <row r="72" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72" s="10">
         <v>87817</v>
@@ -2671,7 +2677,7 @@
     </row>
     <row r="73" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -2681,7 +2687,7 @@
     </row>
     <row r="74" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B74" s="10">
         <v>8046</v>
@@ -2701,7 +2707,7 @@
     </row>
     <row r="75" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75" s="10">
         <v>51046</v>
@@ -2721,21 +2727,21 @@
     </row>
     <row r="76" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="44">
+        <v>9</v>
+      </c>
+      <c r="B76" s="33">
         <v>28725</v>
       </c>
-      <c r="C76" s="44">
+      <c r="C76" s="33">
         <v>25074</v>
       </c>
-      <c r="D76" s="44">
+      <c r="D76" s="33">
         <v>2201</v>
       </c>
-      <c r="E76" s="44">
+      <c r="E76" s="33">
         <v>1422</v>
       </c>
-      <c r="F76" s="44">
+      <c r="F76" s="33">
         <v>28</v>
       </c>
     </row>
@@ -2751,7 +2757,7 @@
     </row>
     <row r="78" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" s="9">
         <v>183121</v>
@@ -2771,7 +2777,7 @@
     </row>
     <row r="79" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -2801,7 +2807,7 @@
     </row>
     <row r="81" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B81" s="10">
         <v>84003</v>
@@ -2821,7 +2827,7 @@
     </row>
     <row r="82" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -2831,7 +2837,7 @@
     </row>
     <row r="83" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B83" s="10">
         <v>6075</v>
@@ -2851,7 +2857,7 @@
     </row>
     <row r="84" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B84" s="10">
         <v>35394</v>
@@ -2871,21 +2877,21 @@
     </row>
     <row r="85" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="44">
+        <v>9</v>
+      </c>
+      <c r="B85" s="33">
         <v>42534</v>
       </c>
-      <c r="C85" s="44">
+      <c r="C85" s="33">
         <v>40705</v>
       </c>
-      <c r="D85" s="44">
+      <c r="D85" s="33">
         <v>79</v>
       </c>
-      <c r="E85" s="44">
+      <c r="E85" s="33">
         <v>1718</v>
       </c>
-      <c r="F85" s="44">
+      <c r="F85" s="33">
         <v>32</v>
       </c>
     </row>
@@ -2893,35 +2899,35 @@
       <c r="A86" s="34">
         <v>2019</v>
       </c>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="32"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
     </row>
     <row r="87" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" s="43">
+        <v>7</v>
+      </c>
+      <c r="B87" s="32">
         <v>192641</v>
       </c>
-      <c r="C87" s="43">
+      <c r="C87" s="32">
         <v>166491</v>
       </c>
-      <c r="D87" s="43">
+      <c r="D87" s="32">
         <v>2852</v>
       </c>
-      <c r="E87" s="43">
+      <c r="E87" s="32">
         <v>9069</v>
       </c>
-      <c r="F87" s="43">
+      <c r="F87" s="32">
         <v>14229</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -2951,7 +2957,7 @@
     </row>
     <row r="90" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B90" s="10">
         <v>105781</v>
@@ -2971,7 +2977,7 @@
     </row>
     <row r="91" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -2981,7 +2987,7 @@
     </row>
     <row r="92" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92" s="10">
         <v>5114</v>
@@ -3001,7 +3007,7 @@
     </row>
     <row r="93" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B93" s="10">
         <v>30288</v>
@@ -3021,21 +3027,21 @@
     </row>
     <row r="94" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" s="44">
+        <v>9</v>
+      </c>
+      <c r="B94" s="33">
         <v>70379</v>
       </c>
-      <c r="C94" s="44">
+      <c r="C94" s="33">
         <v>64276</v>
       </c>
-      <c r="D94" s="44">
+      <c r="D94" s="33">
         <v>256</v>
       </c>
-      <c r="E94" s="44">
+      <c r="E94" s="33">
         <v>1482</v>
       </c>
-      <c r="F94" s="44">
+      <c r="F94" s="33">
         <v>4365</v>
       </c>
     </row>
@@ -3043,35 +3049,35 @@
       <c r="A95" s="34">
         <v>2020</v>
       </c>
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="32"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
     </row>
     <row r="96" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="43">
+        <v>7</v>
+      </c>
+      <c r="B96" s="32">
         <v>67611</v>
       </c>
-      <c r="C96" s="43">
+      <c r="C96" s="32">
         <v>45424</v>
       </c>
-      <c r="D96" s="43">
+      <c r="D96" s="32">
         <v>2422</v>
       </c>
-      <c r="E96" s="43">
+      <c r="E96" s="32">
         <v>6015</v>
       </c>
-      <c r="F96" s="43">
+      <c r="F96" s="32">
         <v>13750</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -3101,7 +3107,7 @@
     </row>
     <row r="99" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B99" s="10">
         <v>20937</v>
@@ -3121,7 +3127,7 @@
     </row>
     <row r="100" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -3131,7 +3137,7 @@
     </row>
     <row r="101" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B101" s="10">
         <v>568</v>
@@ -3151,7 +3157,7 @@
     </row>
     <row r="102" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B102" s="10">
         <v>6544</v>
@@ -3171,21 +3177,21 @@
     </row>
     <row r="103" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B103" s="44">
+        <v>9</v>
+      </c>
+      <c r="B103" s="33">
         <v>13825</v>
       </c>
-      <c r="C103" s="44">
+      <c r="C103" s="33">
         <v>5713</v>
       </c>
-      <c r="D103" s="44">
+      <c r="D103" s="33">
         <v>14</v>
       </c>
-      <c r="E103" s="44">
+      <c r="E103" s="33">
         <v>31</v>
       </c>
-      <c r="F103" s="44">
+      <c r="F103" s="33">
         <v>8067</v>
       </c>
     </row>
@@ -3193,35 +3199,35 @@
       <c r="A104" s="34">
         <v>2021</v>
       </c>
-      <c r="B104" s="32"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="32"/>
+      <c r="B104" s="35"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="35"/>
     </row>
     <row r="105" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="43">
+        <v>7</v>
+      </c>
+      <c r="B105" s="32">
         <v>196006</v>
       </c>
-      <c r="C105" s="43">
+      <c r="C105" s="32">
         <v>175418</v>
       </c>
-      <c r="D105" s="43">
+      <c r="D105" s="32">
         <v>6933</v>
       </c>
-      <c r="E105" s="43">
+      <c r="E105" s="32">
         <v>3703</v>
       </c>
-      <c r="F105" s="43">
+      <c r="F105" s="32">
         <v>9952</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -3251,7 +3257,7 @@
     </row>
     <row r="108" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B108" s="10">
         <v>49918</v>
@@ -3271,7 +3277,7 @@
     </row>
     <row r="109" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -3281,7 +3287,7 @@
     </row>
     <row r="110" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B110" s="10">
         <v>714</v>
@@ -3301,7 +3307,7 @@
     </row>
     <row r="111" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B111" s="10">
         <v>5068</v>
@@ -3321,27 +3327,27 @@
     </row>
     <row r="112" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B112" s="44">
+        <v>9</v>
+      </c>
+      <c r="B112" s="33">
         <v>44136</v>
       </c>
-      <c r="C112" s="44">
+      <c r="C112" s="33">
         <v>40286</v>
       </c>
-      <c r="D112" s="44">
+      <c r="D112" s="33">
         <v>3100</v>
       </c>
-      <c r="E112" s="44">
+      <c r="E112" s="33">
         <v>418</v>
       </c>
-      <c r="F112" s="44">
+      <c r="F112" s="33">
         <v>332</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -3390,12 +3396,12 @@
       <c r="F118" s="10"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="32"/>
-      <c r="B119" s="32"/>
-      <c r="C119" s="32"/>
-      <c r="D119" s="32"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="32"/>
+      <c r="A119" s="35"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="35"/>
+      <c r="D119" s="35"/>
+      <c r="E119" s="35"/>
+      <c r="F119" s="35"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="17"/>
@@ -3446,12 +3452,12 @@
       <c r="F125" s="10"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="32"/>
-      <c r="B126" s="32"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="32"/>
-      <c r="E126" s="32"/>
-      <c r="F126" s="32"/>
+      <c r="A126" s="35"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="35"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="35"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="17"/>
@@ -3502,12 +3508,12 @@
       <c r="F132" s="10"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="32"/>
-      <c r="B133" s="32"/>
-      <c r="C133" s="32"/>
-      <c r="D133" s="32"/>
-      <c r="E133" s="32"/>
-      <c r="F133" s="32"/>
+      <c r="A133" s="35"/>
+      <c r="B133" s="35"/>
+      <c r="C133" s="35"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="35"/>
+      <c r="F133" s="35"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="17"/>
@@ -3558,12 +3564,12 @@
       <c r="F139" s="10"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="32"/>
-      <c r="B140" s="32"/>
-      <c r="C140" s="32"/>
-      <c r="D140" s="32"/>
-      <c r="E140" s="32"/>
-      <c r="F140" s="32"/>
+      <c r="A140" s="35"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="35"/>
+      <c r="D140" s="35"/>
+      <c r="E140" s="35"/>
+      <c r="F140" s="35"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="17"/>
@@ -3614,12 +3620,12 @@
       <c r="F146" s="10"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="32"/>
-      <c r="B147" s="32"/>
-      <c r="C147" s="32"/>
-      <c r="D147" s="32"/>
-      <c r="E147" s="32"/>
-      <c r="F147" s="32"/>
+      <c r="A147" s="35"/>
+      <c r="B147" s="35"/>
+      <c r="C147" s="35"/>
+      <c r="D147" s="35"/>
+      <c r="E147" s="35"/>
+      <c r="F147" s="35"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="17"/>
@@ -3670,12 +3676,12 @@
       <c r="F153" s="10"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="32"/>
-      <c r="B154" s="32"/>
-      <c r="C154" s="32"/>
-      <c r="D154" s="32"/>
-      <c r="E154" s="32"/>
-      <c r="F154" s="32"/>
+      <c r="A154" s="35"/>
+      <c r="B154" s="35"/>
+      <c r="C154" s="35"/>
+      <c r="D154" s="35"/>
+      <c r="E154" s="35"/>
+      <c r="F154" s="35"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="17"/>
@@ -3726,12 +3732,12 @@
       <c r="F160" s="10"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="32"/>
-      <c r="B161" s="32"/>
-      <c r="C161" s="32"/>
-      <c r="D161" s="32"/>
-      <c r="E161" s="32"/>
-      <c r="F161" s="32"/>
+      <c r="A161" s="35"/>
+      <c r="B161" s="35"/>
+      <c r="C161" s="35"/>
+      <c r="D161" s="35"/>
+      <c r="E161" s="35"/>
+      <c r="F161" s="35"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="17"/>
@@ -3782,12 +3788,12 @@
       <c r="F167" s="10"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="32"/>
-      <c r="B168" s="32"/>
-      <c r="C168" s="32"/>
-      <c r="D168" s="32"/>
-      <c r="E168" s="32"/>
-      <c r="F168" s="32"/>
+      <c r="A168" s="35"/>
+      <c r="B168" s="35"/>
+      <c r="C168" s="35"/>
+      <c r="D168" s="35"/>
+      <c r="E168" s="35"/>
+      <c r="F168" s="35"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="17"/>
@@ -3838,12 +3844,12 @@
       <c r="F174" s="10"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="32"/>
-      <c r="B175" s="32"/>
-      <c r="C175" s="32"/>
-      <c r="D175" s="32"/>
-      <c r="E175" s="32"/>
-      <c r="F175" s="32"/>
+      <c r="A175" s="35"/>
+      <c r="B175" s="35"/>
+      <c r="C175" s="35"/>
+      <c r="D175" s="35"/>
+      <c r="E175" s="35"/>
+      <c r="F175" s="35"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="17"/>
@@ -3894,12 +3900,12 @@
       <c r="F181" s="10"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="32"/>
-      <c r="B182" s="32"/>
-      <c r="C182" s="32"/>
-      <c r="D182" s="32"/>
-      <c r="E182" s="32"/>
-      <c r="F182" s="32"/>
+      <c r="A182" s="35"/>
+      <c r="B182" s="35"/>
+      <c r="C182" s="35"/>
+      <c r="D182" s="35"/>
+      <c r="E182" s="35"/>
+      <c r="F182" s="35"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="17"/>
@@ -3951,17 +3957,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="B2:F2"/>
     <mergeCell ref="A175:F175"/>
     <mergeCell ref="A182:F182"/>
     <mergeCell ref="A5:F5"/>
@@ -3978,6 +3973,17 @@
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A95:F95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
